--- a/en/05_programming_fundamentals/memory_example_4/example_memory.xlsx
+++ b/en/05_programming_fundamentals/memory_example_4/example_memory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\uniCourse_dataStructuresAndAlgorithms\en\05_programming_fundamentals\memory_example_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\uniCourse_dataStructuresAndAlgorithms\en\05_programming_fundamentals\memory_example_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150B8F81-403D-4BB9-9932-1B5E90CE01B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444AD46-9A2B-411E-8D76-E8533C345028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{B0555C02-20C0-46F3-A1E0-B668F9422BC6}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -591,107 +591,113 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -776,12 +782,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>98567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>15165</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -798,8 +804,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1379220" y="1043940"/>
-          <a:ext cx="419100" cy="655320"/>
+          <a:off x="1379978" y="1197970"/>
+          <a:ext cx="363903" cy="493026"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -829,12 +835,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>94776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>11374</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -851,8 +857,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1379220" y="1562100"/>
-          <a:ext cx="480060" cy="685800"/>
+          <a:off x="1379978" y="1747672"/>
+          <a:ext cx="360112" cy="489196"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1453,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7FCB09-E7E7-49EE-960F-8DB6DA63E396}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,12 +1514,12 @@
       <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="41" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1536,46 +1542,46 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="15">
         <v>40</v>
       </c>
-      <c r="E5" s="40">
-        <v>0</v>
-      </c>
-      <c r="F5" s="40">
-        <v>0</v>
-      </c>
-      <c r="G5" s="40">
-        <v>0</v>
-      </c>
-      <c r="H5" s="40">
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0</v>
+      </c>
+      <c r="H5" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>44</v>
       </c>
-      <c r="E6" s="41">
-        <v>0</v>
-      </c>
-      <c r="F6" s="41">
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
-        <v>0</v>
-      </c>
-      <c r="H6" s="42">
+      <c r="E6" s="36">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0</v>
+      </c>
+      <c r="H6" s="37">
         <v>0</v>
       </c>
       <c r="K6" t="s">
@@ -1583,199 +1589,199 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="45" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8">
         <v>48</v>
       </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="43">
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="27">
         <v>52</v>
       </c>
-      <c r="E8" s="44">
-        <v>0</v>
-      </c>
-      <c r="F8" s="44">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44">
-        <v>0</v>
-      </c>
-      <c r="H8" s="45">
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>56</v>
       </c>
-      <c r="E9" s="35">
-        <v>0</v>
-      </c>
-      <c r="F9" s="35">
-        <v>0</v>
-      </c>
-      <c r="G9" s="35">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36">
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="8">
         <v>60</v>
       </c>
-      <c r="E10" s="19">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="37">
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="27">
         <v>64</v>
       </c>
-      <c r="E11" s="38">
-        <v>0</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0</v>
-      </c>
-      <c r="H11" s="39">
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>68</v>
       </c>
-      <c r="E12" s="26">
-        <v>0</v>
-      </c>
-      <c r="F12" s="26">
-        <v>0</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="27">
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="8">
         <v>72</v>
       </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="27">
         <v>76</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="22">
+      <c r="B15" s="19"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="20">
         <v>80</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="8" t="s">
         <v>6</v>
       </c>

--- a/en/05_programming_fundamentals/memory_example_4/example_memory.xlsx
+++ b/en/05_programming_fundamentals/memory_example_4/example_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\uniCourse_dataStructuresAndAlgorithms\en\05_programming_fundamentals\memory_example_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444AD46-9A2B-411E-8D76-E8533C345028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0D00DB-FBAA-49D1-B55E-070FB956816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{B0555C02-20C0-46F3-A1E0-B668F9422BC6}"/>
   </bookViews>
@@ -40,6 +40,30 @@
     <author>Anton Curmanschii</author>
   </authors>
   <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{8E439C57-A6C9-4EC2-9E47-AF2B0A06395F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anton Curmanschii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note: The return addresses have been ignored for simplicity, but they are pushed on the stack, always.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{A9FAE471-294B-4A73-9F2A-7250F107B101}">
       <text>
         <r>
@@ -60,7 +84,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-The local variables of a function are sometimes called its "Lexical scope"</t>
+The local variables of a function are sometimes called its "Lexical scope"
+The name that refers to the memory of all local veriables is "Stack frame".</t>
         </r>
       </text>
     </comment>
@@ -1459,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7FCB09-E7E7-49EE-960F-8DB6DA63E396}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
